--- a/data/scheduling_DNN/predict/0.5/result5.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result5.xlsx
@@ -570,10 +570,10 @@
         <v>1.153443098068237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.5133366584777832</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04074825718998909</v>
+        <v>0.4097362458705902</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8832719326019287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4223929941654205</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1431354731321335</v>
+        <v>0.2124093919992447</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.120343923568726</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5159839987754822</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3351864814758301</v>
+        <v>0.3652509152889252</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9491100311279297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8858710527420044</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1509132385253906</v>
+        <v>0.003999168518930674</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9237239360809326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.5274109244346619</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2998146116733551</v>
+        <v>0.1570640057325363</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9247751235961914</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4213767051696777</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01984263770282269</v>
+        <v>0.2534099817276001</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9463999271392822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5009835958480835</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08407695591449738</v>
+        <v>0.1983957141637802</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8976900577545166</v>
       </c>
       <c r="V9" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8868597745895386</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05082503333687782</v>
+        <v>0.0001172950360341929</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.899055004119873</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4919495284557343</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1776064783334732</v>
+        <v>0.1657348722219467</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9092819690704346</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.5048367977142334</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2123394906520844</v>
+        <v>0.1635759025812149</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9274308681488037</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4036193788051605</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1228774860501289</v>
+        <v>0.2743784487247467</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9530508518218994</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4034035801887512</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1694677472114563</v>
+        <v>0.3021121323108673</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9429469108581543</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8931833505630493</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3091541528701782</v>
+        <v>0.002476411871612072</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495279788970947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5018117427825928</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1511251330375671</v>
+        <v>0.2004498243331909</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.994163990020752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4948025941848755</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03450598940253258</v>
+        <v>0.2493617981672287</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8756430149078369</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.3974983096122742</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1390334367752075</v>
+        <v>0.2286223620176315</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962810039520264</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5244829654693604</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03960033506155014</v>
+        <v>0.1382337808609009</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9168720245361328</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4025424420833588</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1623989045619965</v>
+        <v>0.2645348906517029</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.872960090637207</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4024534821510315</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04672527313232422</v>
+        <v>0.2213764637708664</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.884026050567627</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.3973484039306641</v>
       </c>
       <c r="W21" t="n">
-        <v>0.284342885017395</v>
+        <v>0.2368551343679428</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5440189838409424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.513405442237854</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07095135748386383</v>
+        <v>0.0009371889173053205</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5947408676147461</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8817535042762756</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007708363234996796</v>
+        <v>0.08237625658512115</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5421128273010254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4033238291740417</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01919003762304783</v>
+        <v>0.01926238648593426</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5303318500518799</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8806794285774231</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0172722227871418</v>
+        <v>0.1227434277534485</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5387139320373535</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4963666200637817</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01122542750090361</v>
+        <v>0.001793294795788825</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5212831497192383</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.513433575630188</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0003313673078082502</v>
+        <v>6.161581404739991e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.529249906539917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8817276358604431</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07716871052980423</v>
+        <v>0.1242405474185944</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5367741584777832</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5445965528488159</v>
       </c>
       <c r="W29" t="n">
-        <v>2.355749347771052e-05</v>
+        <v>6.118985038483515e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5257649421691895</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8708993196487427</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02093604393303394</v>
+        <v>0.1191177368164062</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5164339542388916</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.403584748506546</v>
       </c>
       <c r="W31" t="n">
-        <v>7.046015980449738e-06</v>
+        <v>0.01273494306951761</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.6232740879058838</v>
       </c>
       <c r="V32" t="n">
-        <v>0.534324586391449</v>
+        <v>0.403247743844986</v>
       </c>
       <c r="W32" t="n">
-        <v>0.007912013679742813</v>
+        <v>0.04841159284114838</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5133988857269287</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8693656921386719</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02655423991382122</v>
+        <v>0.126712366938591</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5330741405487061</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4097492396831512</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02235282026231289</v>
+        <v>0.01520903129130602</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5175430774688721</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4008947908878326</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01303526852279902</v>
+        <v>0.01360682304948568</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.517164945602417</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5036194324493408</v>
       </c>
       <c r="W36" t="n">
-        <v>2.982065325340955e-06</v>
+        <v>0.0001834809227148071</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5153119564056396</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8932030200958252</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01247836090624332</v>
+        <v>0.1428016573190689</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.515822172164917</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4834854304790497</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08535372465848923</v>
+        <v>0.001045664888806641</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5689020156860352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8770423531532288</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0273062139749527</v>
+        <v>0.09495046734809875</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5207960605621338</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.5088435411453247</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06912104785442352</v>
+        <v>0.0001428627147106454</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.48357754945755</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0001752939133439213</v>
+        <v>0.001083165523596108</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3967301845550537</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4873014688491821</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0006776262889616191</v>
+        <v>0.008203157223761082</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4158449172973633</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4988585412502289</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05783817172050476</v>
+        <v>0.006891261786222458</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3887760639190674</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.4874762892723083</v>
       </c>
       <c r="W44" t="n">
-        <v>0.003813890041783452</v>
+        <v>0.009741734713315964</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3917410373687744</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4129497408866882</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02037305943667889</v>
+        <v>0.0004498091002460569</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879590034484863</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5122811794281006</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01238641422241926</v>
+        <v>0.01545600313693285</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3983170986175537</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.491465300321579</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1478860229253769</v>
+        <v>0.008676587603986263</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3900899887084961</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8711777329444885</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3052380681037903</v>
+        <v>0.2314454168081284</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4043679237365723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.883226752281189</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03392750769853592</v>
+        <v>0.229305773973465</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.388634204864502</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8600447773933411</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01575419120490551</v>
+        <v>0.222227931022644</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8901001811027527</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1538906991481781</v>
+        <v>0.2489053755998611</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3972728252410889</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4217782020568848</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01397885102778673</v>
+        <v>0.0006005134782753885</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3955469131469727</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4913704395294189</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1503340005874634</v>
+        <v>0.009182148613035679</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3941268920898438</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4032856523990631</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06110283732414246</v>
+        <v>8.388289279537275e-05</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4272170066833496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8721150755882263</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1391124725341797</v>
+        <v>0.1979342848062515</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3860900402069092</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.5133478045463562</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01397610269486904</v>
+        <v>0.0161945391446352</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4071700572967529</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8814291954040527</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01619783043861389</v>
+        <v>0.2249217331409454</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3896307945251465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5100694298744202</v>
       </c>
       <c r="W58" t="n">
-        <v>0.06402710825204849</v>
+        <v>0.01450546458363533</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3943150043487549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.3973754942417145</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0120724942535162</v>
+        <v>9.366598533233628e-06</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.7000949382781982</v>
       </c>
       <c r="V60" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8681213855743408</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06129204481840134</v>
+        <v>0.0282328873872757</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.432642936706543</v>
       </c>
       <c r="V61" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4865252673625946</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01183205656707287</v>
+        <v>0.00290330545976758</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.121154069900513</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8954223990440369</v>
       </c>
       <c r="W62" t="n">
-        <v>0.5934710502624512</v>
+        <v>0.05095478892326355</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8743460178375244</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4014136791229248</v>
       </c>
       <c r="W63" t="n">
-        <v>0.09782515466213226</v>
+        <v>0.2236649990081787</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8658051490783691</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.5134284496307373</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2405184209346771</v>
+        <v>0.124169334769249</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.869359016418457</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8765930533409119</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1076163426041603</v>
+        <v>5.233129195403308e-05</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9087719917297363</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4034722447395325</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1857045143842697</v>
+        <v>0.2553278207778931</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8689398765563965</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4230078160762787</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2379235178232193</v>
+        <v>0.1988554000854492</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9179859161376953</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4980413913726807</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06823232769966125</v>
+        <v>0.1763534098863602</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8693699836730957</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4224704504013062</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1165798604488373</v>
+        <v>0.1997191905975342</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8722019195556641</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8799214959144592</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1160056889057159</v>
+        <v>5.95918609178625e-05</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.868934154510498</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4958527088165283</v>
       </c>
       <c r="W71" t="n">
-        <v>0.09507360309362411</v>
+        <v>0.1391897648572922</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8890061378479004</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4942502081394196</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2356119602918625</v>
+        <v>0.1558322459459305</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.870305061340332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4918594360351562</v>
       </c>
       <c r="W73" t="n">
-        <v>0.007672275882214308</v>
+        <v>0.1432210952043533</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8672559261322021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.656647801399231</v>
+        <v>0.5000306367874146</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04435578361153603</v>
+        <v>0.1348544061183929</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8700699806213379</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8685879707336426</v>
       </c>
       <c r="W75" t="n">
-        <v>0.003142879111692309</v>
+        <v>2.196353307226673e-06</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654501438140869</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5064343214035034</v>
       </c>
       <c r="W76" t="n">
-        <v>0.03345906361937523</v>
+        <v>0.1288923621177673</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8937699794769287</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4881797432899475</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1438427120447159</v>
+        <v>0.1645034402608871</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8702869415283203</v>
       </c>
       <c r="V78" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8752151131629944</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1082257032394409</v>
+        <v>2.428687548672315e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8677799701690674</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4869626462459564</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2677116692066193</v>
+        <v>0.145021840929985</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9472420215606689</v>
       </c>
       <c r="V80" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4885582327842712</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1961762011051178</v>
+        <v>0.2103908210992813</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9327538013458252</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4036434292793274</v>
       </c>
       <c r="W81" t="n">
-        <v>0.3387047350406647</v>
+        <v>0.2799577713012695</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5638480186462402</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4959719181060791</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02568328380584717</v>
+        <v>0.004607165232300758</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5213959217071533</v>
       </c>
       <c r="V83" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4034803807735443</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01784093305468559</v>
+        <v>0.01390407513827085</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5184769630432129</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.5025940537452698</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02812200784683228</v>
+        <v>0.0002522668219171464</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5217580795288086</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8645328283309937</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01430271938443184</v>
+        <v>0.1174945309758186</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5157489776611328</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.5002285838127136</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01646074838936329</v>
+        <v>0.0002408826258033514</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5259380340576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8954470753669739</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02396737597882748</v>
+        <v>0.1365369260311127</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5170691013336182</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4117202162742615</v>
       </c>
       <c r="W88" t="n">
-        <v>9.398549082106911e-06</v>
+        <v>0.01109838765114546</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5175609588623047</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8690863251686096</v>
       </c>
       <c r="W89" t="n">
-        <v>0.003523343941196799</v>
+        <v>0.1235700845718384</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.521183967590332</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.5455729961395264</v>
       </c>
       <c r="W90" t="n">
-        <v>0.003020291682332754</v>
+        <v>0.0005948247271589935</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5180251598358154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.875163197517395</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1816033869981766</v>
+        <v>0.1275475770235062</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5433800220489502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8704777359962463</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0008801957010291517</v>
+        <v>0.1069929152727127</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5224380493164062</v>
       </c>
       <c r="V93" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.5134252309799194</v>
       </c>
       <c r="W93" t="n">
-        <v>0.08273270726203918</v>
+        <v>8.123089355649427e-05</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5196349620819092</v>
       </c>
       <c r="V94" t="n">
-        <v>0.782903790473938</v>
+        <v>0.5076712965965271</v>
       </c>
       <c r="W94" t="n">
-        <v>0.06931047886610031</v>
+        <v>0.0001431292912457138</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5076957941055298</v>
       </c>
       <c r="W95" t="n">
-        <v>6.434595707105473e-05</v>
+        <v>0.0002146570623153821</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5203309059143066</v>
       </c>
       <c r="V96" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4892793595790863</v>
       </c>
       <c r="W96" t="n">
-        <v>0.06891147047281265</v>
+        <v>0.0009641985525377095</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5738000869750977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5133711099624634</v>
       </c>
       <c r="W97" t="n">
-        <v>0.004949959926307201</v>
+        <v>0.003651661332696676</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.513464629650116</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0131262419745326</v>
+        <v>2.297502214787528e-05</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5209400653839111</v>
       </c>
       <c r="V99" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8571749329566956</v>
       </c>
       <c r="W99" t="n">
-        <v>0.1853428035974503</v>
+        <v>0.1130538880825043</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5182459354400635</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8589586615562439</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0003559417964424938</v>
+        <v>0.1160851642489433</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8703022599220276</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0205108430236578</v>
+        <v>0.1239352598786354</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4032540321350098</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4942951202392578</v>
       </c>
       <c r="W102" t="n">
-        <v>0.002583195688202977</v>
+        <v>0.008288479410111904</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3974640369415283</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4957080483436584</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0004908672417514026</v>
+        <v>0.009651885367929935</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3976988792419434</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8569904565811157</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01137822680175304</v>
+        <v>0.2109487503767014</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4122550487518311</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8756519556045532</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01045993436127901</v>
+        <v>0.2147367000579834</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.38944411277771</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8727865815162659</v>
       </c>
       <c r="W106" t="n">
-        <v>7.416666630888358e-05</v>
+        <v>0.2336199432611465</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3976330757141113</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4095608294010162</v>
       </c>
       <c r="W107" t="n">
-        <v>0.002812432125210762</v>
+        <v>0.0001422713103238493</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3871769905090332</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8634846806526184</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1573021560907364</v>
+        <v>0.2268690168857574</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3911809921264648</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8581411242485046</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0002374682808294892</v>
+        <v>0.2180517613887787</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388538122177124</v>
       </c>
       <c r="V110" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4028025269508362</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01586000435054302</v>
+        <v>0.0002034732460742816</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3948462009429932</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4926397502422333</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01433809846639633</v>
+        <v>0.00956357829272747</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4100580215454102</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8656747937202454</v>
       </c>
       <c r="W112" t="n">
-        <v>0.003513440955430269</v>
+        <v>0.2075866460800171</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3895299434661865</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.3976329565048218</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0001978526561288163</v>
+        <v>6.565882358700037e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3925120830535889</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8722862601280212</v>
       </c>
       <c r="W114" t="n">
-        <v>0.00731717748567462</v>
+        <v>0.2301832586526871</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.417625904083252</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4231410622596741</v>
       </c>
       <c r="W115" t="n">
-        <v>0.07066275924444199</v>
+        <v>3.041696982108988e-05</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8696409463882446</v>
       </c>
       <c r="W116" t="n">
-        <v>0.304686427116394</v>
+        <v>0.225959450006485</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3931059837341309</v>
       </c>
       <c r="V117" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.3974781632423401</v>
       </c>
       <c r="W117" t="n">
-        <v>0.151301383972168</v>
+        <v>1.911595427372959e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4110760688781738</v>
       </c>
       <c r="V118" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4008414745330811</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1391299068927765</v>
+        <v>0.0001047469195327722</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3908309936523438</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.3975017368793488</v>
       </c>
       <c r="W119" t="n">
-        <v>0.02260038256645203</v>
+        <v>4.44988145318348e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4256229400634766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8844659924507141</v>
       </c>
       <c r="W120" t="n">
-        <v>0.04675888270139694</v>
+        <v>0.2105369418859482</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4440429210662842</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.403182715177536</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001654832623898983</v>
+        <v>0.001669556368142366</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671259880065918</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8634585738182068</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2415931224822998</v>
+        <v>1.344992688245839e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8887209892272949</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.50783371925354</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1074067577719688</v>
+        <v>0.1450751125812531</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8680651187896729</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8965488076210022</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1157063990831375</v>
+        <v>0.0008113205549307168</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.924293041229248</v>
       </c>
       <c r="V125" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.87265944480896</v>
       </c>
       <c r="W125" t="n">
-        <v>0.01354932133108377</v>
+        <v>0.002666028216481209</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8812448978424072</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4320714771747589</v>
       </c>
       <c r="W126" t="n">
-        <v>0.07454000413417816</v>
+        <v>0.2017567604780197</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8682968616485596</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4221900105476379</v>
       </c>
       <c r="W127" t="n">
-        <v>0.0461878590285778</v>
+        <v>0.1990113258361816</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8637440204620361</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4094085395336151</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1725076884031296</v>
+        <v>0.2064207345247269</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9166011810302734</v>
       </c>
       <c r="V129" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.3974368572235107</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0006677325000055134</v>
+        <v>0.2695316076278687</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8681149482727051</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.5445363521575928</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1067719757556915</v>
+        <v>0.1047031059861183</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8701992034912109</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.8686107993125916</v>
       </c>
       <c r="W131" t="n">
-        <v>0.004214738961309195</v>
+        <v>2.523027887946228e-06</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8728101253509521</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.882550835609436</v>
       </c>
       <c r="W132" t="n">
-        <v>0.002728172112256289</v>
+        <v>9.488143405178562e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9349958896636963</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.495923638343811</v>
       </c>
       <c r="W133" t="n">
-        <v>0.05658768489956856</v>
+        <v>0.1927844434976578</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8658528327941895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.5455479025840759</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1078457087278366</v>
+        <v>0.1025952473282814</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8889091014862061</v>
       </c>
       <c r="V135" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.4121159613132477</v>
       </c>
       <c r="W135" t="n">
-        <v>0.007891593500971794</v>
+        <v>0.2273316979408264</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8659360408782959</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8930367827415466</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2360426634550095</v>
+        <v>0.0007344502373598516</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9085118770599365</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8667744994163513</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1377471089363098</v>
+        <v>0.001742008724249899</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8685460090637207</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8669649958610535</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1256375014781952</v>
+        <v>2.499602715033689e-06</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8666300773620605</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.3973541259765625</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1729996204376221</v>
+        <v>0.2202199250459671</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8716700077056885</v>
       </c>
       <c r="V140" t="n">
-        <v>0.381181538105011</v>
+        <v>0.40281742811203</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2405789345502853</v>
+        <v>0.2198227345943451</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8764889240264893</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8998659253120422</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05453511327505112</v>
+        <v>0.0005464841960929334</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5386559963226318</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.3973740339279175</v>
       </c>
       <c r="W142" t="n">
-        <v>0.003792280098423362</v>
+        <v>0.01996059343218803</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5247409343719482</v>
       </c>
       <c r="V143" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4240871667861938</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0001035692330333404</v>
+        <v>0.01013118121773005</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5225751399993896</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8692039847373962</v>
       </c>
       <c r="W144" t="n">
-        <v>7.962833478813991e-05</v>
+        <v>0.1201515570282936</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5220029354095459</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.3974660634994507</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02289348840713501</v>
+        <v>0.01550943218171597</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5225028991699219</v>
       </c>
       <c r="V146" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4972464144229889</v>
       </c>
       <c r="W146" t="n">
-        <v>0.06783228367567062</v>
+        <v>0.0006378900143317878</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5472099781036377</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8958321213722229</v>
       </c>
       <c r="W147" t="n">
-        <v>0.008808497339487076</v>
+        <v>0.1215374022722244</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197908878326416</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.3974938988685608</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0003237899800296873</v>
+        <v>0.01495655346661806</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5209581851959229</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4913801550865173</v>
       </c>
       <c r="W149" t="n">
-        <v>0.08119373023509979</v>
+        <v>0.000874859862960875</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5238840579986572</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.500051736831665</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0004283681919332594</v>
+        <v>0.0005679795285686851</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5739820003509521</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5134567022323608</v>
       </c>
       <c r="W151" t="n">
-        <v>0.005195064935833216</v>
+        <v>0.003663311712443829</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5397231578826904</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8617989420890808</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01056673936545849</v>
+        <v>0.1037328094244003</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5232088565826416</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8702242970466614</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02536888420581818</v>
+        <v>0.1204197183251381</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157310962677002</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4985069632530212</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0004686638421844691</v>
+        <v>0.0002966707688756287</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5568740367889404</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4999242424964905</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0234678927809</v>
+        <v>0.003243279177695513</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5757579803466797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5161720514297485</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01141208875924349</v>
+        <v>0.003550482913851738</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5227727890014648</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.506590723991394</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0222888458520174</v>
+        <v>0.0002618592407088727</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5240509510040283</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.5139346718788147</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0170709602534771</v>
+        <v>0.0001023391014314257</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5239291191101074</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8710528612136841</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01447954680770636</v>
+        <v>0.1204948946833611</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5254712104797363</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4032218158245087</v>
       </c>
       <c r="W160" t="n">
-        <v>4.875954255112447e-05</v>
+        <v>0.01494491472840309</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5345959663391113</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8658556342124939</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01895228587090969</v>
+        <v>0.1097329705953598</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3972549438476562</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4215958714485168</v>
       </c>
       <c r="W162" t="n">
-        <v>0.02711793407797813</v>
+        <v>0.0005924807628616691</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3993558883666992</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4982983469963074</v>
       </c>
       <c r="W163" t="n">
-        <v>0.002358886413276196</v>
+        <v>0.009789610281586647</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915700912475586</v>
       </c>
       <c r="V164" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5075995326042175</v>
       </c>
       <c r="W164" t="n">
-        <v>0.3074891269207001</v>
+        <v>0.01346283126622438</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3959598541259766</v>
       </c>
       <c r="V165" t="n">
-        <v>0.65655517578125</v>
+        <v>0.3991025686264038</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06790991872549057</v>
+        <v>9.876654075924307e-06</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3907840251922607</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8671720623970032</v>
       </c>
       <c r="W166" t="n">
-        <v>0.001599868177436292</v>
+        <v>0.2269455641508102</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.397007942199707</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.3990517258644104</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01098884735256433</v>
+        <v>4.177051778242458e-06</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3916471004486084</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.513288140296936</v>
       </c>
       <c r="W168" t="n">
-        <v>0.003469806630164385</v>
+        <v>0.01479654293507338</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3939988613128662</v>
       </c>
       <c r="V169" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8815224766731262</v>
       </c>
       <c r="W169" t="n">
-        <v>0.005222962237894535</v>
+        <v>0.2376792728900909</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3940389156341553</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4959267973899841</v>
       </c>
       <c r="W170" t="n">
-        <v>8.815636101644486e-05</v>
+        <v>0.01038114074617624</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923470973968506</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4218758940696716</v>
       </c>
       <c r="W171" t="n">
-        <v>0.003145726630464196</v>
+        <v>0.0008719498291611671</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3923449516296387</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4089863896369934</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06890983879566193</v>
+        <v>0.0002769374696072191</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3955531120300293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8749599456787109</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01849461533129215</v>
+        <v>0.2298309057950974</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4331440925598145</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4180996119976044</v>
       </c>
       <c r="W174" t="n">
-        <v>0.002729551633819938</v>
+        <v>0.0002263364003738388</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3962390422821045</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8658193945884705</v>
       </c>
       <c r="W175" t="n">
-        <v>0.3025319576263428</v>
+        <v>0.2205057144165039</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3955960273742676</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.4222322702407837</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03723058104515076</v>
+        <v>0.0007094894535839558</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.396122932434082</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.5141042470932007</v>
       </c>
       <c r="W177" t="n">
-        <v>0.06576558947563171</v>
+        <v>0.01391959097236395</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3964598178863525</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.887078583240509</v>
       </c>
       <c r="W178" t="n">
-        <v>5.203806722420268e-05</v>
+        <v>0.2407067716121674</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940629959106445</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.397459089756012</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01436243206262589</v>
+        <v>1.1533453289303e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4558289051055908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4950451850891113</v>
       </c>
       <c r="W180" t="n">
-        <v>0.00272580049932003</v>
+        <v>0.001537916599772871</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4228651523590088</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.3973512947559357</v>
       </c>
       <c r="W181" t="n">
-        <v>0.00519797345623374</v>
+        <v>0.0006509569357149303</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8833620548248291</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8684327006340027</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1872267127037048</v>
+        <v>0.0002228856174042448</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8755478858947754</v>
       </c>
       <c r="V183" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4230766892433167</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2502438426017761</v>
+        <v>0.2047301828861237</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9169979095458984</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5067155361175537</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1420474648475647</v>
+        <v>0.1683316230773926</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.397496223449707</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1452664285898209</v>
+        <v>0.2376794517040253</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8756339550018311</v>
       </c>
       <c r="V186" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8758054971694946</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2758137583732605</v>
+        <v>2.942671528671781e-08</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8836569786071777</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4019655585289001</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1439668089151382</v>
+        <v>0.2320266216993332</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9283440113067627</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.515739381313324</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1024934351444244</v>
+        <v>0.170242577791214</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8767180442810059</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.3974997103214264</v>
       </c>
       <c r="W189" t="n">
-        <v>0.276611328125</v>
+        <v>0.2296502143144608</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8711369037628174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.5134016871452332</v>
       </c>
       <c r="W190" t="n">
-        <v>0.003752858843654394</v>
+        <v>0.1279744803905487</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8779048919677734</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8708412647247314</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1132495328783989</v>
+        <v>4.989482840755954e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.919517993927002</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8826280236244202</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1953098177909851</v>
+        <v>0.001360869966447353</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8804140090942383</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4111892879009247</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2277149260044098</v>
+        <v>0.2201718389987946</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8698029518127441</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.513206422328949</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1266081631183624</v>
+        <v>0.1271610856056213</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719689846038818</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4977436661720276</v>
       </c>
       <c r="W195" t="n">
-        <v>0.0528540126979351</v>
+        <v>0.1400445848703384</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.917996883392334</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4033657908439636</v>
       </c>
       <c r="W196" t="n">
-        <v>0.01043836586177349</v>
+        <v>0.2648451626300812</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8720180988311768</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4105349183082581</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2716846764087677</v>
+        <v>0.212966725230217</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8734560012817383</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.897324800491333</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2207419723272324</v>
+        <v>0.0005697195883840322</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8730437755584717</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4025753140449524</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2203762829303741</v>
+        <v>0.2213405668735504</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9236700534820557</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.491437554359436</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1513665467500687</v>
+        <v>0.1868249326944351</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8841438293457031</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.5132789015769958</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05872397869825363</v>
+        <v>0.1375407874584198</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5266070365905762</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.489520251750946</v>
       </c>
       <c r="W202" t="n">
-        <v>0.08379078656435013</v>
+        <v>0.001375429565086961</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5214660167694092</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8966333866119385</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0139497397467494</v>
+        <v>0.1407505571842194</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5417530536651611</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.403475433588028</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01906578987836838</v>
+        <v>0.01912070065736771</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5228371620178223</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8789384365081787</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02977078408002853</v>
+        <v>0.1268081218004227</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5441110134124756</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.3991071581840515</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02658851817250252</v>
+        <v>0.02102611772716045</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5244998931884766</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4912233948707581</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01414099521934986</v>
+        <v>0.001107325311750174</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5188829898834229</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3973590135574341</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01828230172395706</v>
+        <v>0.01476807706058025</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5189719200134277</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4893144369125366</v>
       </c>
       <c r="W209" t="n">
-        <v>0.003263602964580059</v>
+        <v>0.0008795663015916944</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5803229808807373</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.502782940864563</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01054582558572292</v>
+        <v>0.006012457888573408</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.535944938659668</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.3990485966205597</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01413396466523409</v>
+        <v>0.01874060928821564</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5287878513336182</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.3973535597324371</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02615009248256683</v>
+        <v>0.01727497391402721</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.52211594581604</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4871139824390411</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01402060873806477</v>
+        <v>0.001225137384608388</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.526771068572998</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4105381965637207</v>
       </c>
       <c r="W214" t="n">
-        <v>0.005807099863886833</v>
+        <v>0.01351008098572493</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5894331932067871</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4231805205345154</v>
       </c>
       <c r="W215" t="n">
-        <v>0.04574969038367271</v>
+        <v>0.02763995155692101</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5496680736541748</v>
       </c>
       <c r="V216" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.3990115821361542</v>
       </c>
       <c r="W216" t="n">
-        <v>0.05441730841994286</v>
+        <v>0.02269737794995308</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5268151760101318</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4109569787979126</v>
       </c>
       <c r="W217" t="n">
-        <v>0.03042366728186607</v>
+        <v>0.01342312153428793</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5363750457763672</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.5134409666061401</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01355634350329638</v>
+        <v>0.0005259719910100102</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5629749298095703</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4111722707748413</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0004665062879212201</v>
+        <v>0.0230440478771925</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5319931507110596</v>
       </c>
       <c r="V220" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5002650022506714</v>
       </c>
       <c r="W220" t="n">
-        <v>0.1684969812631607</v>
+        <v>0.00100667541846633</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5279269218444824</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.3989970684051514</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02078414335846901</v>
+        <v>0.01662290655076504</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.397244930267334</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.3974893093109131</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0187715869396925</v>
+        <v>5.972111694063642e-08</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3915078639984131</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.5036711692810059</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0001459497725591063</v>
+        <v>0.01258060708642006</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939077854156494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.8764494657516479</v>
       </c>
       <c r="W224" t="n">
-        <v>0.3025608062744141</v>
+        <v>0.2328464686870575</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3916800022125244</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8658429980278015</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0940604954957962</v>
+        <v>0.2248305529356003</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4328830242156982</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8690042495727539</v>
       </c>
       <c r="W226" t="n">
-        <v>0.002664397470653057</v>
+        <v>0.1902017295360565</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3996849060058594</v>
       </c>
       <c r="V227" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.410166323184967</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1470813751220703</v>
+        <v>0.0001098601060220972</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4040250778198242</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.3974687159061432</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06191937625408173</v>
+        <v>4.298588100937195e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4079239368438721</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3974625170230865</v>
       </c>
       <c r="W229" t="n">
-        <v>1.822617559810169e-05</v>
+        <v>0.0001094413019018248</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933310508728027</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8699278235435486</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1683376878499985</v>
+        <v>0.2271444797515869</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3949780464172363</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.5151486396789551</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0003839755954686552</v>
+        <v>0.01444097142666578</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4021458625793457</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8673414587974548</v>
       </c>
       <c r="W232" t="n">
-        <v>0.03482404351234436</v>
+        <v>0.2164069414138794</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998990058898926</v>
       </c>
       <c r="V233" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8798392415046692</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002460376359522343</v>
+        <v>0.2303426265716553</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.405724048614502</v>
       </c>
       <c r="V234" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4034239053726196</v>
       </c>
       <c r="W234" t="n">
-        <v>0.07091319561004639</v>
+        <v>5.290658918966074e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.5099282264709473</v>
       </c>
       <c r="W235" t="n">
-        <v>3.473192191449925e-05</v>
+        <v>0.01266418024897575</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.39900803565979</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5134581327438354</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06552259624004364</v>
+        <v>0.0130988247692585</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923060894012451</v>
       </c>
       <c r="V237" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.483759343624115</v>
       </c>
       <c r="W237" t="n">
-        <v>0.3086760342121124</v>
+        <v>0.008363697677850723</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889281749725342</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8726217150688171</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01559833809733391</v>
+        <v>0.233959436416626</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3951809406280518</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8681053519248962</v>
       </c>
       <c r="W239" t="n">
-        <v>0.005056951660662889</v>
+        <v>0.2236575037240982</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.39736008644104</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8712552189826965</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01354718487709761</v>
+        <v>0.2245765924453735</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951489925384521</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.3975042104721069</v>
       </c>
       <c r="W241" t="n">
-        <v>7.133505278034136e-05</v>
+        <v>5.547051387111424e-06</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8929769992828369</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8677504062652588</v>
       </c>
       <c r="W242" t="n">
-        <v>0.239698737859726</v>
+        <v>0.0006363809807226062</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8785910606384277</v>
       </c>
       <c r="V243" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8928622007369995</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1326122879981995</v>
+        <v>0.0002036654332187027</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.879249095916748</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4049623012542725</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1416907757520676</v>
+        <v>0.2249479591846466</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8834140300750732</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5012521743774414</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09525276720523834</v>
+        <v>0.1460476815700531</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.875234842300415</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5157002210617065</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2223892956972122</v>
+        <v>0.1292651444673538</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9250237941741943</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8709333539009094</v>
       </c>
       <c r="W247" t="n">
-        <v>0.3297533094882965</v>
+        <v>0.002925775712355971</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8970799446105957</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.410231351852417</v>
       </c>
       <c r="W248" t="n">
-        <v>0.04600352793931961</v>
+        <v>0.2370215505361557</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.882411003112793</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4024934470653534</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1432577222585678</v>
+        <v>0.2303208559751511</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8718051910400391</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.861367404460907</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1139290481805801</v>
+        <v>0.0001089473880711012</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>1.004710912704468</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4008158147335052</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03714625909924507</v>
+        <v>0.3646892607212067</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>1.061408042907715</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4094336628913879</v>
       </c>
       <c r="W252" t="n">
-        <v>0.3134034276008606</v>
+        <v>0.425070583820343</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8926548957824707</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4985787272453308</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1331920325756073</v>
+        <v>0.1552960276603699</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8992478847503662</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4024507701396942</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1279069930315018</v>
+        <v>0.2468073666095734</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9490199089050293</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.86029052734375</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2017315626144409</v>
+        <v>0.007872902788221836</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8883821964263916</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.3974994421005249</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1234455332159996</v>
+        <v>0.240965873003006</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8981759548187256</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.8711623549461365</v>
       </c>
       <c r="W257" t="n">
-        <v>0.0131485341116786</v>
+        <v>0.000729734601918608</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8828940391540527</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8966878056526184</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1736181527376175</v>
+        <v>0.0001902679941849783</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9129691123962402</v>
       </c>
       <c r="V259" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4884294271469116</v>
       </c>
       <c r="W259" t="n">
-        <v>0.001218106364831328</v>
+        <v>0.1802339404821396</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8786218166351318</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8708568215370178</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1603640168905258</v>
+        <v>6.029514770489186e-05</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8955340385437012</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.5131901502609253</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1320066154003143</v>
+        <v>0.1461868435144424</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5531089305877686</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8691019415855408</v>
       </c>
       <c r="W262" t="n">
-        <v>0.00149573793169111</v>
+        <v>0.0998515859246254</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.6277599334716797</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.3992472887039185</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01298194378614426</v>
+        <v>0.05221802741289139</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5312418937683105</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8582151532173157</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02296927943825722</v>
+        <v>0.1069115102291107</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5316398143768311</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.8641900420188904</v>
       </c>
       <c r="W265" t="n">
-        <v>0.07754556089639664</v>
+        <v>0.1105896532535553</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5339949131011963</v>
       </c>
       <c r="V266" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.8692798614501953</v>
       </c>
       <c r="W266" t="n">
-        <v>0.1698931008577347</v>
+        <v>0.112415999174118</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5337541103363037</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.891339898109436</v>
       </c>
       <c r="W267" t="n">
-        <v>0.03348229080438614</v>
+        <v>0.1278675943613052</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5894861221313477</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5133823156356812</v>
       </c>
       <c r="W268" t="n">
-        <v>0.004278922919183969</v>
+        <v>0.005791789386421442</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.547321081161499</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.3976061046123505</v>
       </c>
       <c r="W269" t="n">
-        <v>3.533838389557786e-05</v>
+        <v>0.02241457439959049</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.535912036895752</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.397490382194519</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01749395206570625</v>
+        <v>0.01916055381298065</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.526371955871582</v>
       </c>
       <c r="V271" t="n">
-        <v>0.944080114364624</v>
+        <v>0.3990126550197601</v>
       </c>
       <c r="W271" t="n">
-        <v>0.1744801104068756</v>
+        <v>0.01622039079666138</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5662498474121094</v>
       </c>
       <c r="V272" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8955159783363342</v>
       </c>
       <c r="W272" t="n">
-        <v>0.1415047943592072</v>
+        <v>0.1084161847829819</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5730569362640381</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4940468072891235</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01565171405673027</v>
+        <v>0.00624260026961565</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5378789901733398</v>
       </c>
       <c r="V274" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8660390973091125</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01352280378341675</v>
+        <v>0.1076890528202057</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5280790328979492</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8689417243003845</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01658742129802704</v>
+        <v>0.1161873713135719</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5299570560455322</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8695299625396729</v>
       </c>
       <c r="W276" t="n">
-        <v>0.03151546791195869</v>
+        <v>0.1153097599744797</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5287628173828125</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4025492966175079</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0006039303843863308</v>
+        <v>0.01592985354363918</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8756262063980103</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0005095346714369953</v>
+        <v>0.1212608143687248</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8801801800727844</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0008262096671387553</v>
+        <v>0.1231048703193665</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5236248970031738</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8630715608596802</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0001887336402432993</v>
+        <v>0.1152240410447121</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5271949768066406</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4018776416778564</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01628652587532997</v>
+        <v>0.0157044343650341</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4166510105133057</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4230223596096039</v>
       </c>
       <c r="W282" t="n">
-        <v>0.06059429049491882</v>
+        <v>4.05940882046707e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4005398750305176</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.3974473178386688</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0008882423862814903</v>
+        <v>9.563909770804457e-06</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.450901985168457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3990980684757233</v>
       </c>
       <c r="W284" t="n">
-        <v>0.05739545077085495</v>
+        <v>0.002683645812794566</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4034860134124756</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.402476578950882</v>
       </c>
       <c r="W285" t="n">
-        <v>0.005522433202713728</v>
+        <v>1.018957959786349e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009947776794434</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4018676280975342</v>
       </c>
       <c r="W286" t="n">
-        <v>0.002521903021261096</v>
+        <v>7.618678523613198e-07</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992629051208496</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.8870828747749329</v>
       </c>
       <c r="W287" t="n">
-        <v>0.167797178030014</v>
+        <v>0.2379683256149292</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4006428718566895</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.3973816931247711</v>
       </c>
       <c r="W288" t="n">
-        <v>0.05828823521733284</v>
+        <v>1.063528634404065e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4134471416473389</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8600377440452576</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1551746129989624</v>
+        <v>0.1994431614875793</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4300417900085449</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.500316858291626</v>
       </c>
       <c r="W290" t="n">
-        <v>0.005480464547872543</v>
+        <v>0.004938585218042135</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4008779525756836</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8778558969497681</v>
       </c>
       <c r="W291" t="n">
-        <v>0.03530621156096458</v>
+        <v>0.2275079637765884</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400914192199707</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4229993224143982</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0587112121284008</v>
+        <v>0.0004877529863733798</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4005739688873291</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4918923079967499</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01316477824002504</v>
+        <v>0.008339039050042629</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3969550132751465</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.5035521984100342</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01183765940368176</v>
+        <v>0.01136295963078737</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.5004014372825623</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01972310617566109</v>
+        <v>0.0107438238337636</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970170021057129</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.484763115644455</v>
       </c>
       <c r="W296" t="n">
-        <v>0.002137162256985903</v>
+        <v>0.007699380628764629</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.400076150894165</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8769736289978027</v>
       </c>
       <c r="W297" t="n">
-        <v>7.175956125138327e-05</v>
+        <v>0.2274312078952789</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3999190330505371</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.397503137588501</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01689330488443375</v>
+        <v>5.836550826643361e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4065620899200439</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8695154786109924</v>
       </c>
       <c r="W299" t="n">
-        <v>0.08466837555170059</v>
+        <v>0.2143258452415466</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4043889045715332</v>
       </c>
       <c r="V300" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4008685350418091</v>
       </c>
       <c r="W300" t="n">
-        <v>0.002873482182621956</v>
+        <v>1.239300127053866e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.400001049041748</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4984490573406219</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002422974677756429</v>
+        <v>0.009692010469734669</v>
       </c>
     </row>
     <row r="302" spans="1:23">
